--- a/outputs_HGR/c__Gammaproteobacteria.xlsx
+++ b/outputs_HGR/c__Gammaproteobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,20 +474,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43440.fa</t>
+          <t>even_MAG-GUT1861.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.477520756733674e-12</v>
+        <v>0.03898443179991121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9945728552818769</v>
+        <v>0.9609849467234637</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005427144712645665</v>
+        <v>3.062147662507972e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9945728552818769</v>
+        <v>0.9609849467234637</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -503,20 +503,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91702.fa</t>
+          <t>even_MAG-GUT3427.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.060160787590307e-12</v>
+        <v>0.04234714895744301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9878933824326019</v>
+        <v>0.9576073625115518</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0121066175623379</v>
+        <v>4.548853100520531e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9878933824326019</v>
+        <v>0.9576073625115518</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -532,27 +532,172 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT3435.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04044130900443254</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9594889110945014</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.97799010660079e-05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9594889110945014</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43440.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.477520756733674e-12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9945728552818769</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.005427144712645665</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9945728552818769</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8151.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9968757625693284</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002802703324043471</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0003215341066280073</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9968757625693284</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>o__Aeromonadales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>o__Aeromonadales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91566.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.05172531570058501</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9480379032992007</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.000236781000214267</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9480379032992007</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91702.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.060160787590307e-12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9878933824326019</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0121066175623379</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9878933824326019</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT91898.fa</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B9" t="n">
         <v>1.836383938701958e-12</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C9" t="n">
         <v>0.9933893857680852</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D9" t="n">
         <v>0.006610614230078402</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E9" t="n">
         <v>0.9933893857680852</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>o__Enterobacterales</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>o__Enterobacterales</t>
         </is>

--- a/outputs_HGR/c__Gammaproteobacteria.xlsx
+++ b/outputs_HGR/c__Gammaproteobacteria.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-o__Enterobacterales</t>
+          <t>2-o__Enterobacteriales</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -478,25 +478,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03898443179991121</v>
+        <v>0.03520523397528527</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9609849467234637</v>
+        <v>0.9647794223478172</v>
       </c>
       <c r="D2" t="n">
-        <v>3.062147662507972e-05</v>
+        <v>1.534367689746153e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9609849467234637</v>
+        <v>0.9647794223478172</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
     </row>
@@ -507,25 +507,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04234714895744301</v>
+        <v>0.03684537515533343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9576073625115518</v>
+        <v>0.9631391457316339</v>
       </c>
       <c r="D3" t="n">
-        <v>4.548853100520531e-05</v>
+        <v>1.547911303273034e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9576073625115518</v>
+        <v>0.9631391457316339</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
     </row>
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04044130900443254</v>
+        <v>0.03572430884807398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9594889110945014</v>
+        <v>0.9642561102966731</v>
       </c>
       <c r="D4" t="n">
-        <v>6.97799010660079e-05</v>
+        <v>1.958085525284554e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9594889110945014</v>
+        <v>0.9642561102966731</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
     </row>
@@ -565,25 +565,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.477520756733674e-12</v>
+        <v>7.869648616956833e-12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9945728552818769</v>
+        <v>0.9961243047253495</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005427144712645665</v>
+        <v>0.003875695266780933</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9945728552818769</v>
+        <v>0.9961243047253495</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
     </row>
@@ -594,16 +594,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9968757625693284</v>
+        <v>0.9980260006688301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002802703324043471</v>
+        <v>0.001881920608242717</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003215341066280073</v>
+        <v>9.207872292724438e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9968757625693284</v>
+        <v>0.9980260006688301</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -623,25 +623,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05172531570058501</v>
+        <v>0.0481199069003626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9480379032992007</v>
+        <v>0.9517966535752956</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000236781000214267</v>
+        <v>8.343952434173828e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9480379032992007</v>
+        <v>0.9517966535752956</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
     </row>
@@ -652,25 +652,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.060160787590307e-12</v>
+        <v>1.165893880203994e-11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9878933824326019</v>
+        <v>0.9912008011340265</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0121066175623379</v>
+        <v>0.008799198854314478</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9878933824326019</v>
+        <v>0.9912008011340265</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
     </row>
@@ -681,25 +681,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.836383938701958e-12</v>
+        <v>4.664273613457401e-12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9933893857680852</v>
+        <v>0.9928291302162617</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006610614230078402</v>
+        <v>0.00717086977907411</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9933893857680852</v>
+        <v>0.9928291302162617</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Enterobacteriales</t>
         </is>
       </c>
     </row>
